--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/79_Yalova_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/79_Yalova_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CFCE299-3D58-4AC5-96FC-6D3D1548C095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7561BF2F-F07D-44DE-A388-24E7ACD2C5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{CAC103CA-1AC2-46C9-90BA-D9399E06FA0C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{13D1ADB3-92A1-48C5-896B-AEED94A9BF41}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -920,14 +920,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{76B77A3E-CA08-4261-A4F3-4E301C45236F}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{DF4D8F27-9AE3-4B2A-8968-BB87C905163E}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{87E3AEA5-0D35-44BF-8A12-9B692102E72F}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{2286E2FD-156F-4F7D-A64F-8D68CCA73518}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{5AE8252E-D581-4742-9BAD-0AFABCF451FF}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{5450954C-6113-4AE2-A97A-6B54C002017A}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{091EFA68-4B88-446C-A8E4-2410325CFD87}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{E3709526-6745-4A47-A1A8-7C7A6533B56E}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{8157F3D5-C763-4E16-9922-5F303685BFF7}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{928CC368-462B-40B7-B88C-FC87B78F19FA}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{4AC343A9-368C-4ABE-AD34-C81138FB0594}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{59044001-9615-46E0-B397-C8A458A58488}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{468C82FB-28FF-49F2-B9CE-0A5EEE058590}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{A8DE14AA-BA51-4667-833D-E7C34A954798}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{86337A51-3B58-41C4-9DE3-A17EA31870AD}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{B1961939-4A1B-4067-A11D-BEA0CA6DB8FB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1297,7 +1297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72251B06-BCF7-426D-AF73-37DFC11E1669}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84565E74-F29B-4DFA-814C-DFB1D6885696}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2596,18 +2596,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B57EF42B-6D12-401F-8CC3-45492C31E3A9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4A2BC86C-83CC-4235-BF3C-A04969685108}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1A544F98-FF93-4C70-88EC-4F351EF4AD27}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{40EEE283-711C-4907-B18F-5F2E3297AAE4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FFCC2B90-4B2A-4038-8810-7B3187122A6A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9A691FAC-BDBF-4E81-B745-A628DA57E5A7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E47CDB49-C25A-43BC-938D-88FD389D3F38}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F7FC6345-2489-438C-B3BB-A912DDAAE87C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3798CCDA-2692-432F-AF86-F6FA95A120CC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D7321109-201A-4DE7-9657-7F2A7A32E1DC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1190ACFA-A928-4049-A2F0-90E28BD5E4B6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{286690A1-4F8C-4D46-A9A0-22D15387FB72}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{40581C77-01D7-42E8-93EB-EF055B17C593}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5B1E3E8E-2E8A-4EF2-949D-7EE4BFA28E27}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FCC87E67-E8AA-44F9-B949-79E7223C56F0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FD9D8638-389D-4E36-A709-941B450EC527}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{865CB9B2-0409-4428-8444-8ABD72693FBC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5C866D78-FEDF-4ACD-A8E1-F40A6140B1C2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7FB48E17-9F92-4610-BA0F-97E1E0311499}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2350B21A-A52F-4515-8328-2A49C9A8BB2B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5AC8E65E-7D7E-46A4-9995-E462920A77C2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D794F5ED-C12B-4D64-9EE0-BB216351D384}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{945133D6-02FC-4645-9382-7F13A0B0736D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{87CAF324-CD03-4E0B-9A51-D341DCD0FD3D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2620,7 +2620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1489E56-05A0-4FAB-9921-B72B525CED03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF2F61B-8E93-4FB0-9D73-B8E3BD68E958}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3893,18 +3893,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AD87E746-E20B-4089-BCE9-199BF81C9F02}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CE44FCC6-9700-439C-82B5-35D39AC48F0C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7B7F1D00-A95B-4D09-95CE-05E0B2A69F25}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{771BF4F9-4BCA-4DD0-921B-94080D417C08}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{67429DFD-F592-44FA-9DA7-67A208757A06}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7CEDA04A-5CFA-4701-BD57-E0093944C564}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0EDC75D6-AA47-44F4-AFD7-1E8D47A9D3BF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{68109DE3-4AFE-4DB5-88DD-CF476EAD7253}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CA8ACDE9-FEA7-4F36-9788-BF9980DC20F5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{10B68B60-D161-4E92-A654-41A89377EBF5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{23BB023B-D3D3-4683-95D6-F68AA6F868D0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4DFF1C6A-22E5-4CD1-858C-B9E54F2057C5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{81B1C577-9A05-4B61-A9E1-7D7AFFA13959}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7FB93A00-9286-4CE4-BEF9-51DC5EAA1DEA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E4DADEA2-B456-47B8-8594-B9B7A8723286}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F70F7A30-E294-489C-8B9E-33BED2B242DC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{811B0E77-1260-43F3-9B99-2877C6FD30E2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9077E610-A755-45BD-AEC1-B7D2BB6E151C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B6303D5F-A71B-4C4C-AE1A-D934115B0C98}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F54B7792-6300-489F-9AB2-1B8DC4212BB9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3B03D5CA-6E71-4B98-993A-E0F18F6BFC9E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EFAD1CEB-2AE1-430C-A191-7CBA18C0AD5C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{18E23BCB-D82C-44D6-9B94-164C6457165A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9020C460-5350-4671-A6BA-25CD3A01D192}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3917,7 +3917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7638A96E-8FD2-4193-940E-C8C6BD407688}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BDF832F-E595-492A-AAE3-81D6EA8E6192}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5190,17 +5190,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{691F5657-374C-47DF-BE65-C48ABCEB4D50}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{679AA251-782D-4C3B-B039-B8553F54F9AD}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1D267479-81C3-4241-8C41-4507501801F7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C5724C2B-771E-41C9-86F7-1B36DDD4380D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4FDC1CDA-BF9D-401E-9987-329A467A9F64}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9B559681-2001-4620-9C9A-A667D53D969E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{41D72059-0279-446C-B912-5F4D8CCB6AD1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F4AFC245-1C5C-4183-B9A2-E42460055CA9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{65DE4E11-3A71-4BDF-9DDF-B6FB668E7E40}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0010E6B2-EE10-41A0-8D4F-270BFD675194}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{45D7295A-6C92-4613-A528-16B9BD211C53}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6B7C6ABC-8C3E-4A69-B4EE-6B8E46FA0840}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1E12519D-B83C-44C5-AB94-F9E0E69ECA5A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{81DDEB16-29CE-44EE-96E6-52F78032DBDC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{42C4C200-7E1D-4FC3-885C-E78175A77AC8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{791B3C14-F987-4073-8F9A-11B7C6BD4C44}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D21C8F2B-FACD-4452-8A36-7AAAC4D725F4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB8B338F-6027-4045-90A2-65CF42D95FEA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2FE1EA86-51E0-4E32-98F4-9E6627B71410}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{81376BE5-49F2-405A-972B-A9B8596AB648}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{97F12FB3-93BB-4B44-A4D9-64D52B8930BC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{072FE7D6-C962-4E08-9D9E-2A9D42B92BC1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5213,7 +5213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF407FD-1D59-4C26-9F36-36310DA07345}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34AAF432-6A35-44BE-8BFC-870487F34EE1}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6486,18 +6486,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6ACC6296-16D6-494C-8532-4B2FB1675A54}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A31EA930-8E60-4B43-BE3A-0580F19BBCBC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7CF9FE59-0C92-4126-BFF2-2A70036BDBBF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C161E3D3-FCC8-42D7-9A7E-47605647F7D8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D21197DB-6920-4185-813B-B110C2E05EC5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{14FD1736-BCCB-4C6E-9A51-CF78DAD80C97}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{110DA3F9-0DD9-44E3-8C5F-4B6FE7D63085}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4E23E6CF-18A4-473F-9E6F-11B23F9D5B32}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CF4A8BA4-48AA-45F7-90D0-9FA57B0C2F83}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AE7FB183-98E7-43D7-8695-CAE741AD5274}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E36E4FC4-DC74-4FF0-B3A0-DE3437825866}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7FF476B3-8B9E-4AB0-9F33-5F78DB5E82CA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{306D4D9A-FB6E-4E40-B929-3A0AE12B46E5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{96F04397-2BA7-4018-B02D-B1F1021881DD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9560CE2E-94BF-4799-B59C-F0DA5C31A1FF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F4AF9324-E723-40A3-A22A-62A1802427C9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{079DE5AB-70CE-4DDD-925D-07E78BFFD6A9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FC60E164-AD59-4A0B-B913-A37DEB41148A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{36C8458C-5F24-46D6-808F-BFEAFD064955}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7953BC07-50A1-45C9-9AFD-2701F2C3D87F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A243EA32-B3F3-46C2-A723-B12A916E0B96}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C2BFA817-7C9C-4A40-AF2D-C2BCEC52F711}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{77A2BE78-7110-48A9-A538-58D014030377}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4E60944A-44EB-4870-9E50-6E64D72BEC10}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6510,7 +6510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58A723E-E385-4829-9C37-1549283D483E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8756D4D-3F4B-4487-B0FD-685E7FE2806D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7809,18 +7809,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{332EEB12-0BB6-4373-88A2-D6BF4FD4E748}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8103FB79-5561-48E5-A642-8D2E6E4BCCDE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3F11197D-96CE-4A62-BCBB-C3EEA18544A8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B5486952-D4C7-40A6-9429-F9F7154E5F2D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6C593846-27A6-498B-ABD1-83D5587A8A00}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C22E2592-D31E-4B0D-88AA-0552300D9AF1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5E73A394-9D94-4137-8C85-66F9CEF6140F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1443E47B-BF99-4578-BCAF-835C8DA08A14}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F83B4CFB-033A-41D4-A9D6-27DE63453FE8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{705CAF9B-3EF1-4EB3-A176-DA88FB501CD9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{75B560AE-9F7D-433F-808B-61BD056C3BBF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8CAE4AD1-0B86-41F4-B7F3-54DFF3E73C49}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F4F25803-C2F7-4997-BF91-B2738F94154E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3496E27F-F8DD-4321-A719-24BC6D6EDF82}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{90C15722-2452-43CA-875F-7A6A6C7296FC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{80B752AC-83A4-49F1-A814-15F027E98EAD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{349731E3-DCBF-40B3-AAB1-BDDDF89BFC82}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EF926421-5D37-476A-9569-6DD110BA22D9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E859EF18-5937-44A1-96CE-18577F04DDAB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2E2EF992-4FBB-46EC-B7DF-CB83C46E7F7E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A8479810-0464-417A-94A9-3779ADE99FEC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{63F96580-1491-4FD5-81A6-70FDD57283A7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{055114D7-C513-424F-AF51-EB9723AD36CD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B47421B1-4562-4D0E-B98C-C15D65CDFD45}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7833,7 +7833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7B2767-4628-448E-836A-71339AE89424}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C9A6E1-7C12-47E5-AB03-F1F183AF5B73}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9132,18 +9132,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{35CCD9A4-08BC-4881-88DD-72BB7EFF380F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0AD0446D-B80A-4F57-8D75-8F8D10703BA9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{27E6ACB3-D271-4518-9921-C9EA516105E6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{33D63F04-1339-430B-9793-B30317D2BF2C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DB42FA8F-0E06-4C75-BCA4-E458E1CB91A8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{27775765-1F42-49D8-B1EF-F47EEBB894D2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7857D211-5790-4F0F-AD58-C51F8C598AEB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{77C82CE1-097D-4055-A23C-B50E8B78D683}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5E757FEA-1580-49C7-B3FE-492398F81419}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7C80C17F-6BC9-4FF2-AD2B-6E6AF1ED3DA2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4E8B06B9-E906-4881-9D72-A55A69CFF5EE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2C6E96FE-EE6C-4052-8491-DE6187F22159}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5B3329B5-DD85-456E-9217-53F5C339E0C6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4F85E567-F681-4517-AA72-C1A713E3838E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{35CFE013-2EBD-40BD-80C7-28128800D7AC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D1CFB225-FDC5-4AF1-8969-BA468EDB691F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D7C710B9-0BBA-4375-9AE2-6149DA299CAF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6E28D68B-5B0B-42DC-93B5-681FD4D8099C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8C3EE671-F648-408D-A27B-61D16A050E22}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ABBD2F2D-6015-4E97-A800-DC3F6D897C5C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1A36E469-6867-4D65-9CE9-713A92E5C208}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9FF4170E-DD74-4015-8547-26C433ADE915}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6F51AB84-A8D8-43DB-BC6F-32C3F91E7494}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{77CA4517-4DC9-4F27-80C8-C2495AAB8D46}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9156,7 +9156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89B6449-D274-47A2-93CB-0537F0136E30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D35939D-60E6-4542-ABC4-972CB90C024C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10455,18 +10455,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7A4DEC3D-35C3-43F6-9922-EAD758631143}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D99D67EB-7B98-40D9-8B52-4319241584A2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{470BF409-4EAC-4FB8-80E9-8222A3AADB65}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C370B04B-B7FC-4FCD-B7E8-9DA59EA49632}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1D0F028A-B37A-4305-8364-289FAEB282D6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E0373D19-0B69-4A51-980F-410DBCA1FE59}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{39F95F32-97B3-43C3-A042-CA8E4D465C21}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{69AC8747-54FD-4645-8CA3-FD564C9414FD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9811A136-6EA9-4CA5-9B80-9167B7CEFA41}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B1E80327-D594-4466-97D5-76BB882C8F20}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A1BA80C5-C804-4F21-B22F-70FC8FA47AC2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BBD75A4D-AB3C-40C4-89E4-C67B0706C860}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{28A13E22-4692-4B69-9837-378F039BC762}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0A39F413-3803-4A59-8743-17CA54D76A93}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC468B64-B133-489E-BF27-0C46B955EE74}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{07A1F8C5-A9DD-4A8C-AC36-81D4C04BAA66}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1A17FA63-F7B1-414A-9A6A-05F542BF16D1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F5279305-F5ED-459E-A756-30A9B87EFEE4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{06165834-0E75-43E7-ADCC-B84182D8E3A0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{10F40BC8-D4AB-40DB-A5F4-CA8AEED97FFC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{021DC704-C95A-4ABE-A73A-2CAE14A2F1F4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{61C02780-CD3E-4BDB-A321-1E311586A03C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AFBA9C96-8046-4708-BC37-3B916B0A46BE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5750B50F-8BCF-4A8A-ACE7-98B3151CCE1D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10479,7 +10479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4830C4D8-CC01-4979-AC88-CD9F189D6BAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22501AD5-DCBE-4836-A581-5D288950E45F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11778,18 +11778,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2651088A-94C4-4BD9-99CE-9B8FA9F6F12D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0B9AF5F7-4D65-4B67-891F-9816DA42A5DC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{26C2AA5D-202F-4EA2-AC11-6FFBAB40D822}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{15A224AF-464A-4D05-8A1C-74DE3F635723}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{437DA2E3-09FB-4209-BC3C-1668281BA2CA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BB0EF31B-D86F-4667-B4B9-5977B5844F82}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{849431BF-C9CF-4C3F-A9A2-7251C99DDCFB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EDCACD7C-DEE6-4883-9739-4C510F12E4B4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FFC04446-B331-4BF1-ADFC-27AFAEEB02DF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8C3CA493-F37F-40A1-847B-0F4EBF2E5BBC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4D751BE6-B6EF-4C27-A52F-5EBD830DAAC2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FBB62DD1-6B1C-4B44-8E66-36CCC623B685}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{46AEDAE7-F424-4AAD-A5C9-7BAC23135962}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2CD4B89F-8191-40D6-A58E-C80F8B2CA32D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5697C2B3-01D5-4A38-BE13-86B5F119BD12}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F72351B6-E9C2-4948-9694-6B53C11664FC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9C5555C7-2AEE-4635-978A-60E8CD9797BB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7933E77B-5D13-4DAA-82AD-6A48BD92F944}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0C86571B-BB46-44B7-89F3-7076678ADC42}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C5CCFF34-571E-42B5-A336-B3B102301FF9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{93C8E68D-AEA0-421B-994D-60A71533208F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A4C95606-9510-4814-968C-09BA5967DB54}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{270FC936-39A0-4EE8-882A-7642EA9FA3C3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6E81D675-FC76-405B-9975-BDEA37AFA537}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11802,7 +11802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7719B2C8-7B3F-488F-9A95-607F4322A96C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9500DB4D-FE5B-429F-A000-FE951D888034}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13089,18 +13089,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{01FB2DF9-DC85-4BC6-9C2E-F4FA46C59E00}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{41701BC5-A12F-473E-9148-FD2764551637}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6B156C21-71E7-46BA-AC42-9244B091A1A4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{662E83AC-8D99-4D96-B6DA-8316F85FBF5B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0E93B5B0-F471-400E-94A4-8943584406A1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1F94B94F-5834-48D8-80C0-6117AC823250}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D6D7ECD6-8386-4738-8921-5D3D82826799}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0523202A-C0A8-4893-8815-6650CC73AFD2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{881C969A-909D-4AF6-8BCD-CBD1D5FA89E1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{13AD929E-0D32-44BD-ABB8-8768EC44BC84}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B58479DA-0C22-4DCA-9402-5CA27FAA6E57}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{63BFE2A3-89DB-4438-8C6D-133C7C71B4FB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E260EBED-8168-4723-B735-54452449BDA5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{070DCD5B-F96C-4761-9BE3-A4C71C63559F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CE582050-B6E0-44E3-A13E-425711D0B1FA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1C757326-CF4A-4BF3-9709-4FD500AF47DD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5D6EE414-AD73-4896-9FED-9FA5C7F0D253}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0A145206-05C9-4DCA-B3F7-0093730863E6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{770E724A-4BEE-4F64-A4E4-223A1973ED8A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6C421D39-470F-4E65-8B31-04A4C1425AA3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F9A75099-89F6-47C8-B92C-D4816E1C5107}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{213A4D3A-01E7-45BE-AD77-FDC6143E39BA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D3DE5FFA-C23E-421C-AE82-4ED9530F513C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{61AB14D6-D389-47B5-840E-B37AECEA3A82}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13113,7 +13113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF8CA8D-9DD4-47F9-816D-8F7726A49F1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37D253A-F5CF-4158-9C48-8C5576497ECD}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14400,18 +14400,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BE0A1B3D-FF55-4B58-995D-E69A6C079606}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A62F13B4-5105-4BFB-A6E8-B6832C80DEE0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E090EB14-944C-471C-8F21-EE548255CC65}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E0CCD33F-7A59-4751-B86F-101AE6F471E8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{15EAA7AF-3AB4-4C89-A968-9D36EAA9F8AE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6B3FB9E6-591A-456C-A55A-E4F57F3546AF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B8F378B5-37FC-4340-AF41-A4ACFF3FB47C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{19412A1F-0B5A-471D-AC7D-E7975049B11C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7320C493-E2CB-4BAF-B4B4-7B65699A2B00}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A3FFAB7F-E1BD-466B-9654-9C9027B3112C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B83B0579-DDE7-47EA-9D4E-524B6CE07334}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{85E75669-A21D-468F-8B1A-C84EFF3216BE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{23D1CD0C-A004-4971-9E5E-44A9FF5ECB7D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6F50A461-0C8A-407B-8B56-A82B4DE3FC97}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D40D3C79-C5C6-4F28-BC04-1BE86A273238}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{269A7BDE-F860-417A-947C-B822F20D0BE1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{27FE5EDB-B7A9-43F3-A515-CDFD771D5115}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DCF3D44F-C9EC-4B2C-A902-3398512BF24F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DA6A6860-C4E2-4B3D-8271-91ECB06D227A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BD40F04C-6C06-4BBA-82D0-54798174C690}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EC90AD76-DF1B-41D8-BD45-701E25AB38B6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FFF1B984-60AF-47E6-81DB-E87AEC0209C6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{500B6FFB-15D6-4210-8DD5-8796C709DCEB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6C4558D8-2A99-45F3-943A-8E652F7F2D70}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14424,7 +14424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045C4306-852B-4C6C-8AFD-A81C7E00B5C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EAB1E9-2726-4F0A-80E6-2D80D7FDF453}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15705,18 +15705,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E73DEF30-FC39-4876-BF8A-ACE7DD9CD066}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D9E4FD2F-445A-4641-BC0B-A81A95433D2C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F54A21B1-1516-4511-AA88-F5BC871A6D23}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{71A6D580-5CAC-41C6-8444-768ABD482003}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{47DC795A-0A6D-4D9B-ABD0-021F1D2C2356}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{640720DB-888D-43C3-8F5E-BF3AB16F1CBF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0CCC2F11-FDAA-4F1B-8E0B-019012094C9E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9900B354-9F59-4FEF-8A47-ADE71430B0E2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5848F68A-F846-4E77-83ED-9A47A764A064}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{99EE1AC7-11F2-42BF-8196-6A961DAF765E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FCEF7CC1-5214-4F12-BB9E-51B29ADC9124}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4F773739-0BC7-4A56-9D9A-51089BC4E789}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5A5074F3-9ABB-440A-971A-8F461F8FAB29}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F0342B00-0477-444A-B551-07B6B7EE0EDC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{535EBD91-93CE-4C45-84C1-3CC8E9275263}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6B7B509F-9795-4919-9F7C-E7FA4D85705D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FE99A075-09C1-4781-970A-47423A21929B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D8FA6BF7-928E-4281-979D-EC39D89BD75B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A4E62779-B8F4-44BA-8655-4FBDFF870EE1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BA17272A-D359-476A-8803-8B0C6432DA14}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A7BBE559-F820-4327-AFD1-CA2B916C9DE0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{44ABDD69-F23B-4A10-9CF4-666BD31BA1CB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4BB3E53D-9EC6-4666-A012-876ACCCBA334}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C18FCB59-ADCD-4224-BE86-594AFD310D16}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15729,7 +15729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A105F28-4412-4D19-94CF-09DE129C4E10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABD2A11-91BF-40C8-8CE5-F105E7680462}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17010,18 +17010,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A53B855C-DAA8-48B3-BBC5-9CA9B10C7E15}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{09B2FB00-9C34-4A4C-B00E-4A6DD861C6F7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D42873E5-7E10-4B7B-856E-D550AFC62C2C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2FB66D5D-07DA-4D67-B2CE-ECF559292F90}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7CFECF63-2FB6-44F6-85C0-ABEF11903FD5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9E66A3B5-577F-4687-8429-05B102F34E58}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5BE5B33F-E7CF-4338-9A81-10ED4B54F16A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{08FECA3F-00C1-4B76-ABA1-E52850C1DB64}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{641885B5-D377-491E-9D90-D2DA9B38BA70}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8843925E-8126-4AE1-8CBE-ED4283BF5ED6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A8065A37-6AF4-46EE-A3DE-61EE60E88407}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{77CEE23C-DA70-4374-BA9E-20C87ECA7273}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AF73FE60-3ADB-43A3-A420-FA2EBB5F093A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EE06EEF3-9E93-4624-9322-6EA50CACBE39}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{36060EA5-003F-464B-B563-30B499C9D8D2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8E3F479A-4800-4F6E-BD53-EE6FB2A5ED23}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A2574C4B-5A2D-485A-A202-A0B89B87BB3C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D019102D-9075-43C4-AD18-F5CB6ABB10DB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F5574BF2-1427-485C-BAD1-FB7040772AAB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4EB2F0DF-2B22-4875-A011-A9A92994BA6B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B4EC84F1-4994-4C45-A6B9-A833D2BC5F1E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F27BA884-3592-40D2-98B1-D6C0CC958314}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FE363480-6E95-464D-BAE9-01E7063AA7CF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CB214C45-13E4-4F06-9A0C-B95920FE14E3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
